--- a/biology/Médecine/James_Currie/James_Currie.xlsx
+++ b/biology/Médecine/James_Currie/James_Currie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Currie (né le 31 mai 1756 à Dumfriesshire en Écosse; mort le 31 août 1805 à Sidmouth), médecin écossais.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a constaté par des expériences exactes l'utilité de l'eau froide dans les maladies et consigné ses observations dans un livre intitulé : Résultats des effets médicinaux par l'eau froide, 1797[1].
-Il initia en Angleterre une des premières série de relevé de températures qu'il mesurait à des fins diagnostiques et pronostiques. Attachant une attention particulière à la fièvre - qu'il continuait toutefois à considérer comme une maladie en tant que telle - , il avait recours aux bains froids dont il contrôlait l'effet à l'aide du thermomètre. Son travail n'eut alors que peu d'influence [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a constaté par des expériences exactes l'utilité de l'eau froide dans les maladies et consigné ses observations dans un livre intitulé : Résultats des effets médicinaux par l'eau froide, 1797.
+Il initia en Angleterre une des premières série de relevé de températures qu'il mesurait à des fins diagnostiques et pronostiques. Attachant une attention particulière à la fièvre - qu'il continuait toutefois à considérer comme une maladie en tant que telle - , il avait recours aux bains froids dont il contrôlait l'effet à l'aide du thermomètre. Son travail n'eut alors que peu d'influence .
 </t>
         </is>
       </c>
